--- a/Submission/PDF_part1.team_031.xlsx
+++ b/Submission/PDF_part1.team_031.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="24480" windowHeight="14360" tabRatio="500"/>
+    <workbookView xWindow="820" yWindow="1900" windowWidth="24480" windowHeight="14360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,8 +79,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -88,9 +90,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -423,12 +427,12 @@
   <dimension ref="A1:E1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
